--- a/UNIDAD00/2022_2_AvanceProgramatico_INTROPROG.xlsx
+++ b/UNIDAD00/2022_2_AvanceProgramatico_INTROPROG.xlsx
@@ -297,7 +297,7 @@
     <numFmt numFmtId="172" formatCode="General"/>
     <numFmt numFmtId="173" formatCode="dddd"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -358,11 +358,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -622,11 +617,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -751,10 +746,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="180" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="180" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -763,11 +754,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="9" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="9" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -795,7 +786,7 @@
       <alignment horizontal="left" vertical="center" textRotation="180" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -804,6 +795,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -820,10 +815,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -920,9 +911,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>878040</xdr:colOff>
+      <xdr:colOff>877680</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>31680</xdr:rowOff>
+      <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -931,8 +922,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6450120" y="163080"/>
-          <a:ext cx="3612960" cy="6374160"/>
+          <a:off x="6451560" y="163080"/>
+          <a:ext cx="3613680" cy="6373800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1302,7 +1293,7 @@
       <selection pane="topLeft" activeCell="C99" activeCellId="0" sqref="C99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="3.3"/>
@@ -1496,7 +1487,7 @@
       <c r="E7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="23" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="24" t="n">
@@ -1563,7 +1554,7 @@
         <f aca="false">B9/$C$2</f>
         <v>0.0185185185185185</v>
       </c>
-      <c r="E9" s="32"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="23"/>
       <c r="G9" s="24" t="n">
         <f aca="false">G8+1</f>
@@ -1582,7 +1573,7 @@
         <v/>
       </c>
       <c r="L9" s="17"/>
-      <c r="M9" s="33"/>
+      <c r="M9" s="32"/>
       <c r="O9" s="29"/>
     </row>
     <row r="10" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1615,7 +1606,7 @@
         <v>NL</v>
       </c>
       <c r="L10" s="17"/>
-      <c r="M10" s="33"/>
+      <c r="M10" s="32"/>
       <c r="O10" s="29"/>
     </row>
     <row r="11" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1652,7 +1643,7 @@
         <v/>
       </c>
       <c r="L11" s="17"/>
-      <c r="M11" s="33"/>
+      <c r="M11" s="32"/>
       <c r="O11" s="29"/>
     </row>
     <row r="12" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1809,7 +1800,7 @@
       <c r="H16" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="34"/>
+      <c r="I16" s="33"/>
       <c r="J16" s="27" t="n">
         <f aca="false">G16</f>
         <v>44604</v>
@@ -1818,9 +1809,9 @@
         <f aca="false">IF(H16="domingo","NL",IF(I16="V","No programar Clase",""))</f>
         <v/>
       </c>
-      <c r="L16" s="35"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
       <c r="O16" s="29"/>
     </row>
     <row r="17" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1843,7 +1834,7 @@
       <c r="H17" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="37"/>
+      <c r="I17" s="36"/>
       <c r="J17" s="27" t="n">
         <f aca="false">G17</f>
         <v>44605</v>
@@ -1875,7 +1866,7 @@
         <f aca="false">G17+1</f>
         <v>44606</v>
       </c>
-      <c r="H18" s="38" t="s">
+      <c r="H18" s="37" t="s">
         <v>15</v>
       </c>
       <c r="I18" s="18" t="s">
@@ -1885,7 +1876,7 @@
         <f aca="false">G18</f>
         <v>44606</v>
       </c>
-      <c r="K18" s="39"/>
+      <c r="K18" s="38"/>
       <c r="O18" s="29"/>
     </row>
     <row r="19" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1980,7 +1971,7 @@
       <c r="H21" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="37"/>
+      <c r="I21" s="36"/>
       <c r="J21" s="27" t="n">
         <f aca="false">G21</f>
         <v>44609</v>
@@ -2042,7 +2033,7 @@
       <c r="H23" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I23" s="37"/>
+      <c r="I23" s="36"/>
       <c r="J23" s="27" t="n">
         <f aca="false">G23</f>
         <v>44611</v>
@@ -2270,17 +2261,17 @@
         <f aca="false">G29+1</f>
         <v>44618</v>
       </c>
-      <c r="H30" s="38" t="s">
+      <c r="H30" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="I30" s="34" t="s">
+      <c r="I30" s="33" t="s">
         <v>29</v>
       </c>
       <c r="J30" s="27" t="n">
         <f aca="false">G30</f>
         <v>44618</v>
       </c>
-      <c r="K30" s="39" t="str">
+      <c r="K30" s="38" t="str">
         <f aca="false">IF(H30="domingo","NL",IF(I30="V","No programar Clase",""))</f>
         <v>No programar Clase</v>
       </c>
@@ -2404,10 +2395,10 @@
         <f aca="false">G33+1</f>
         <v>44622</v>
       </c>
-      <c r="H34" s="40" t="s">
+      <c r="H34" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="I34" s="37" t="s">
+      <c r="I34" s="36" t="s">
         <v>30</v>
       </c>
       <c r="J34" s="27" t="n">
@@ -2443,10 +2434,10 @@
         <f aca="false">G34+1</f>
         <v>44623</v>
       </c>
-      <c r="H35" s="40" t="s">
+      <c r="H35" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="I35" s="37" t="s">
+      <c r="I35" s="36" t="s">
         <v>30</v>
       </c>
       <c r="J35" s="27" t="n">
@@ -2476,10 +2467,10 @@
         <f aca="false">G35+1</f>
         <v>44624</v>
       </c>
-      <c r="H36" s="40" t="s">
+      <c r="H36" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="I36" s="37" t="s">
+      <c r="I36" s="36" t="s">
         <v>30</v>
       </c>
       <c r="J36" s="27" t="n">
@@ -2509,10 +2500,10 @@
         <f aca="false">G36+1</f>
         <v>44625</v>
       </c>
-      <c r="H37" s="40" t="s">
+      <c r="H37" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="I37" s="37" t="s">
+      <c r="I37" s="36" t="s">
         <v>30</v>
       </c>
       <c r="J37" s="27" t="n">
@@ -2580,7 +2571,7 @@
       <c r="H39" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="I39" s="37"/>
+      <c r="I39" s="36"/>
       <c r="J39" s="27" t="n">
         <f aca="false">G39</f>
         <v>44627</v>
@@ -2747,7 +2738,7 @@
       <c r="H44" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I44" s="34"/>
+      <c r="I44" s="33"/>
       <c r="J44" s="27" t="n">
         <f aca="false">G44</f>
         <v>44632</v>
@@ -2813,7 +2804,7 @@
       <c r="H46" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="I46" s="37"/>
+      <c r="I46" s="36"/>
       <c r="J46" s="27" t="n">
         <f aca="false">G46</f>
         <v>44634</v>
@@ -2977,7 +2968,7 @@
       <c r="H51" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I51" s="34"/>
+      <c r="I51" s="33"/>
       <c r="J51" s="27" t="n">
         <f aca="false">G51</f>
         <v>44639</v>
@@ -3008,7 +2999,7 @@
       <c r="H52" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I52" s="37"/>
+      <c r="I52" s="36"/>
       <c r="J52" s="27" t="n">
         <f aca="false">G52</f>
         <v>44640</v>
@@ -3039,7 +3030,7 @@
       <c r="H53" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="I53" s="37"/>
+      <c r="I53" s="36"/>
       <c r="J53" s="27" t="n">
         <f aca="false">G53</f>
         <v>44641</v>
@@ -3070,7 +3061,7 @@
       <c r="H54" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I54" s="37"/>
+      <c r="I54" s="36"/>
       <c r="J54" s="27" t="n">
         <f aca="false">G54</f>
         <v>44642</v>
@@ -3112,7 +3103,7 @@
         <f aca="false">G55</f>
         <v>44643</v>
       </c>
-      <c r="K55" s="39" t="str">
+      <c r="K55" s="38" t="str">
         <f aca="false">IF(H55="domingo","NL",IF(I55="V","No programar Clase",""))</f>
         <v>No programar Clase</v>
       </c>
@@ -3206,7 +3197,7 @@
       <c r="H58" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I58" s="34"/>
+      <c r="I58" s="33"/>
       <c r="J58" s="27" t="n">
         <f aca="false">G58</f>
         <v>44646</v>
@@ -3237,7 +3228,7 @@
       <c r="H59" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I59" s="37"/>
+      <c r="I59" s="36"/>
       <c r="J59" s="27" t="n">
         <f aca="false">G59</f>
         <v>44647</v>
@@ -3272,7 +3263,7 @@
       <c r="H60" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="I60" s="37"/>
+      <c r="I60" s="36"/>
       <c r="J60" s="27" t="n">
         <f aca="false">G60</f>
         <v>44648</v>
@@ -3434,17 +3425,17 @@
         <f aca="false">G64+1</f>
         <v>44653</v>
       </c>
-      <c r="H65" s="38" t="s">
+      <c r="H65" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="I65" s="37" t="s">
+      <c r="I65" s="36" t="s">
         <v>34</v>
       </c>
       <c r="J65" s="27" t="n">
         <f aca="false">G65</f>
         <v>44653</v>
       </c>
-      <c r="K65" s="39" t="str">
+      <c r="K65" s="38" t="str">
         <f aca="false">IF(H65="domingo","NL",IF(I65="V","No programar Clase",""))</f>
         <v>No programar Clase</v>
       </c>
@@ -3463,7 +3454,7 @@
       </c>
       <c r="E66" s="22"/>
       <c r="F66" s="23"/>
-      <c r="G66" s="41" t="n">
+      <c r="G66" s="40" t="n">
         <f aca="false">G65+1</f>
         <v>44654</v>
       </c>
@@ -3571,7 +3562,7 @@
       <c r="H69" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I69" s="37" t="s">
+      <c r="I69" s="36" t="s">
         <v>34</v>
       </c>
       <c r="J69" s="27" t="n">
@@ -3672,7 +3663,7 @@
       <c r="H72" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I72" s="34"/>
+      <c r="I72" s="33"/>
       <c r="J72" s="27" t="n">
         <f aca="false">G72</f>
         <v>44660</v>
@@ -3969,7 +3960,7 @@
       <c r="H81" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="I81" s="37"/>
+      <c r="I81" s="36"/>
       <c r="J81" s="27" t="n">
         <f aca="false">G81</f>
         <v>44669</v>
@@ -4134,7 +4125,7 @@
       <c r="H86" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I86" s="42"/>
+      <c r="I86" s="41"/>
       <c r="J86" s="27" t="n">
         <f aca="false">G86</f>
         <v>44674</v>
@@ -4165,7 +4156,7 @@
       <c r="H87" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I87" s="42"/>
+      <c r="I87" s="41"/>
       <c r="J87" s="27" t="n">
         <f aca="false">G87</f>
         <v>44675</v>
@@ -4200,7 +4191,7 @@
       <c r="H88" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="I88" s="42"/>
+      <c r="I88" s="41"/>
       <c r="J88" s="27" t="n">
         <f aca="false">G88</f>
         <v>44676</v>
@@ -4362,7 +4353,7 @@
         <f aca="false">G92+1</f>
         <v>44681</v>
       </c>
-      <c r="H93" s="38" t="s">
+      <c r="H93" s="37" t="s">
         <v>24</v>
       </c>
       <c r="I93" s="18" t="s">
@@ -4372,7 +4363,7 @@
         <f aca="false">G93</f>
         <v>44681</v>
       </c>
-      <c r="K93" s="39" t="str">
+      <c r="K93" s="38" t="str">
         <f aca="false">IF(H93="domingo","NL",IF(I93="V","No programar Clase",""))</f>
         <v>No programar Clase</v>
       </c>
@@ -4433,7 +4424,7 @@
       <c r="H95" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="I95" s="37"/>
+      <c r="I95" s="36"/>
       <c r="J95" s="27" t="n">
         <f aca="false">G95</f>
         <v>44683</v>
@@ -4767,7 +4758,7 @@
       <c r="H105" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="I105" s="43"/>
+      <c r="I105" s="42"/>
       <c r="J105" s="27" t="n">
         <f aca="false">G105</f>
         <v>44693</v>
@@ -4798,7 +4789,7 @@
       <c r="H106" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I106" s="43"/>
+      <c r="I106" s="42"/>
       <c r="J106" s="27" t="n">
         <f aca="false">G106</f>
         <v>44694</v>
@@ -4829,7 +4820,7 @@
       <c r="H107" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I107" s="43"/>
+      <c r="I107" s="42"/>
       <c r="J107" s="27" t="n">
         <f aca="false">G107</f>
         <v>44695</v>
@@ -4860,7 +4851,7 @@
       <c r="H108" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I108" s="43"/>
+      <c r="I108" s="42"/>
       <c r="J108" s="27" t="n">
         <f aca="false">G108</f>
         <v>44696</v>
@@ -4895,7 +4886,7 @@
       <c r="H109" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="I109" s="43"/>
+      <c r="I109" s="42"/>
       <c r="J109" s="27" t="n">
         <f aca="false">G109</f>
         <v>44697</v>
@@ -4998,7 +4989,7 @@
       <c r="H112" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="I112" s="43"/>
+      <c r="I112" s="42"/>
       <c r="J112" s="27" t="n">
         <f aca="false">G112</f>
         <v>44700</v>
@@ -5029,7 +5020,7 @@
       <c r="H113" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I113" s="43"/>
+      <c r="I113" s="42"/>
       <c r="J113" s="27" t="n">
         <f aca="false">G113</f>
         <v>44701</v>
@@ -5057,17 +5048,17 @@
         <f aca="false">G113+1</f>
         <v>44702</v>
       </c>
-      <c r="H114" s="38" t="s">
+      <c r="H114" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="I114" s="43" t="s">
+      <c r="I114" s="42" t="s">
         <v>34</v>
       </c>
       <c r="J114" s="27" t="n">
         <f aca="false">G114</f>
         <v>44702</v>
       </c>
-      <c r="K114" s="39" t="str">
+      <c r="K114" s="38" t="str">
         <f aca="false">IF(H114="domingo","NL",IF(I114="V","No programar Clase",""))</f>
         <v>No programar Clase</v>
       </c>
@@ -5093,7 +5084,7 @@
       <c r="H115" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I115" s="43"/>
+      <c r="I115" s="42"/>
       <c r="J115" s="27" t="n">
         <f aca="false">G115</f>
         <v>44703</v>
@@ -5128,7 +5119,7 @@
       <c r="H116" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="I116" s="43"/>
+      <c r="I116" s="42"/>
       <c r="J116" s="27" t="n">
         <f aca="false">G116</f>
         <v>44704</v>
@@ -5229,7 +5220,7 @@
       <c r="H119" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="I119" s="37"/>
+      <c r="I119" s="36"/>
       <c r="J119" s="27" t="n">
         <f aca="false">G119</f>
         <v>44707</v>
@@ -5260,7 +5251,7 @@
       <c r="H120" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I120" s="37"/>
+      <c r="I120" s="36"/>
       <c r="J120" s="27" t="n">
         <f aca="false">G120</f>
         <v>44708</v>
@@ -5291,7 +5282,7 @@
       <c r="H121" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I121" s="37"/>
+      <c r="I121" s="36"/>
       <c r="J121" s="27" t="n">
         <f aca="false">G121</f>
         <v>44709</v>
@@ -5322,7 +5313,7 @@
       <c r="H122" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I122" s="37"/>
+      <c r="I122" s="36"/>
       <c r="J122" s="27" t="n">
         <f aca="false">G122</f>
         <v>44710</v>
@@ -5357,7 +5348,7 @@
       <c r="H123" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="I123" s="37"/>
+      <c r="I123" s="36"/>
       <c r="J123" s="27" t="n">
         <f aca="false">G123</f>
         <v>44711</v>
@@ -5388,7 +5379,7 @@
       <c r="H124" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I124" s="37"/>
+      <c r="I124" s="36"/>
       <c r="J124" s="27" t="n">
         <f aca="false">G124</f>
         <v>44712</v>
@@ -5423,7 +5414,7 @@
       <c r="H125" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I125" s="37"/>
+      <c r="I125" s="36"/>
       <c r="J125" s="27" t="n">
         <f aca="false">G125</f>
         <v>44713</v>
@@ -5458,7 +5449,7 @@
       <c r="H126" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="I126" s="37"/>
+      <c r="I126" s="36"/>
       <c r="J126" s="27" t="n">
         <f aca="false">G126</f>
         <v>44714</v>
@@ -5489,7 +5480,7 @@
       <c r="H127" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I127" s="37"/>
+      <c r="I127" s="36"/>
       <c r="J127" s="27" t="n">
         <f aca="false">G127</f>
         <v>44715</v>
@@ -5520,7 +5511,7 @@
       <c r="H128" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I128" s="37"/>
+      <c r="I128" s="36"/>
       <c r="J128" s="27" t="n">
         <f aca="false">G128</f>
         <v>44716</v>
@@ -5551,7 +5542,7 @@
       <c r="H129" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I129" s="37"/>
+      <c r="I129" s="36"/>
       <c r="J129" s="27" t="n">
         <f aca="false">G129</f>
         <v>44717</v>
@@ -5586,7 +5577,7 @@
       <c r="H130" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="I130" s="37"/>
+      <c r="I130" s="36"/>
       <c r="J130" s="27" t="n">
         <f aca="false">G130</f>
         <v>44718</v>
@@ -5617,7 +5608,7 @@
       <c r="H131" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I131" s="37"/>
+      <c r="I131" s="36"/>
       <c r="J131" s="27" t="n">
         <f aca="false">G131</f>
         <v>44719</v>
@@ -5654,7 +5645,7 @@
       <c r="H132" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I132" s="37"/>
+      <c r="I132" s="36"/>
       <c r="J132" s="27" t="n">
         <f aca="false">G132</f>
         <v>44720</v>
@@ -5689,7 +5680,7 @@
       <c r="H133" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="I133" s="37"/>
+      <c r="I133" s="36"/>
       <c r="J133" s="27" t="n">
         <f aca="false">G133</f>
         <v>44721</v>
@@ -5720,7 +5711,7 @@
       <c r="H134" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I134" s="37"/>
+      <c r="I134" s="36"/>
       <c r="J134" s="27" t="n">
         <f aca="false">G134</f>
         <v>44722</v>
@@ -5751,7 +5742,7 @@
       <c r="H135" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I135" s="37"/>
+      <c r="I135" s="36"/>
       <c r="J135" s="27" t="n">
         <f aca="false">G135</f>
         <v>44723</v>
@@ -5782,7 +5773,7 @@
       <c r="H136" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I136" s="37"/>
+      <c r="I136" s="36"/>
       <c r="J136" s="27" t="n">
         <f aca="false">G136</f>
         <v>44724</v>
@@ -5817,7 +5808,7 @@
       <c r="H137" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="I137" s="37"/>
+      <c r="I137" s="36"/>
       <c r="J137" s="27" t="n">
         <f aca="false">G137</f>
         <v>44725</v>
@@ -5848,7 +5839,7 @@
       <c r="H138" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I138" s="37"/>
+      <c r="I138" s="36"/>
       <c r="J138" s="27" t="n">
         <f aca="false">G138</f>
         <v>44726</v>
@@ -5914,7 +5905,7 @@
       <c r="H140" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="I140" s="37"/>
+      <c r="I140" s="36"/>
       <c r="J140" s="27" t="n">
         <f aca="false">G140</f>
         <v>44728</v>
@@ -5947,7 +5938,7 @@
       <c r="H141" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I141" s="37"/>
+      <c r="I141" s="36"/>
       <c r="J141" s="27" t="n">
         <f aca="false">G141</f>
         <v>44729</v>
@@ -5978,7 +5969,7 @@
       <c r="H142" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I142" s="37"/>
+      <c r="I142" s="36"/>
       <c r="J142" s="27" t="n">
         <f aca="false">G142</f>
         <v>44730</v>
@@ -6009,7 +6000,7 @@
       <c r="H143" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I143" s="37"/>
+      <c r="I143" s="36"/>
       <c r="J143" s="27" t="n">
         <f aca="false">G143</f>
         <v>44731</v>
@@ -6042,7 +6033,7 @@
       <c r="H144" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="I144" s="37"/>
+      <c r="I144" s="36"/>
       <c r="J144" s="27" t="n">
         <f aca="false">G144</f>
         <v>44732</v>
@@ -6463,223 +6454,223 @@
       <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.47265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.15"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="43" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="44" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="76.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="44" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="44" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="44" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="44" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="44" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="44" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="44" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="76.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="44" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="44" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="44" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="44" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="44" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="45" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="46" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="46" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="47" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="47" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="47" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="47" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="47" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="47" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="44" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="44" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="47" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="43" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="45" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="47" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="47" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="47" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="47" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="47" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="47" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="47" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="48" t="s">
+      <c r="B37" s="47" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="48" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="48" t="s">
+      <c r="B39" s="47" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="48" t="s">
+      <c r="B40" s="47" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="49" t="s">
+      <c r="B41" s="48" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="48" t="s">
+      <c r="B42" s="47" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="48" t="s">
+      <c r="B43" s="47" t="s">
         <v>84</v>
       </c>
     </row>
